--- a/excelfile/new_datasave_ite.xlsx
+++ b/excelfile/new_datasave_ite.xlsx
@@ -14,16 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>Employee No.</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Department</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Time in</t>
   </si>
@@ -37,19 +28,16 @@
     <t>Status</t>
   </si>
   <si>
-    <t>neil</t>
-  </si>
-  <si>
-    <t>ITE</t>
-  </si>
-  <si>
-    <t>8:23:45 AM</t>
-  </si>
-  <si>
-    <t>5:23:45 PM</t>
-  </si>
-  <si>
-    <t>02/11/2022</t>
+    <t>9:12:45 AM</t>
+  </si>
+  <si>
+    <t>6:23:45 PM</t>
+  </si>
+  <si>
+    <t>07/11/2022</t>
+  </si>
+  <si>
+    <t>Late</t>
   </si>
 </sst>
 </file>
@@ -407,13 +395,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,40 +414,22 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>234</v>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
       <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/excelfile/new_datasave_ite.xlsx
+++ b/excelfile/new_datasave_ite.xlsx
@@ -395,40 +395,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A3:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D4" t="s">
         <v>7</v>
       </c>
     </row>

--- a/excelfile/new_datasave_ite.xlsx
+++ b/excelfile/new_datasave_ite.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>Date</t>
+  </si>
   <si>
     <t>Time in</t>
   </si>
@@ -22,22 +25,28 @@
     <t>Time out</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>9:12:45 AM</t>
-  </si>
-  <si>
-    <t>6:23:45 PM</t>
-  </si>
-  <si>
-    <t>07/11/2022</t>
-  </si>
-  <si>
     <t>Late</t>
+  </si>
+  <si>
+    <t>Early Dismissal</t>
+  </si>
+  <si>
+    <t>25-11-2022</t>
+  </si>
+  <si>
+    <t>8:23:45 AM</t>
+  </si>
+  <si>
+    <t>5:23:45 PM</t>
+  </si>
+  <si>
+    <t>Departmet:  ITE</t>
+  </si>
+  <si>
+    <t>Name:  neil</t>
+  </si>
+  <si>
+    <t>Employee No:  56743</t>
   </si>
 </sst>
 </file>
@@ -96,8 +105,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -395,38 +405,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:D4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E4" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C5" t="s">
         <v>7</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/excelfile/new_datasave_ite.xlsx
+++ b/excelfile/new_datasave_ite.xlsx
@@ -14,15 +14,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Room</t>
+  </si>
+  <si>
+    <t>Section</t>
+  </si>
+  <si>
+    <t>Time in</t>
+  </si>
+  <si>
+    <t>Time out</t>
+  </si>
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>Time in</t>
-  </si>
-  <si>
-    <t>Time out</t>
+    <t>Remarks</t>
   </si>
   <si>
     <t>Late</t>
@@ -31,22 +52,40 @@
     <t>Early Dismissal</t>
   </si>
   <si>
+    <t>neil</t>
+  </si>
+  <si>
+    <t>ITE</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>4A</t>
+  </si>
+  <si>
+    <t>8:23:45 AM</t>
+  </si>
+  <si>
+    <t>5:23:45 PM</t>
+  </si>
+  <si>
     <t>25-11-2022</t>
   </si>
   <si>
-    <t>8:23:45 AM</t>
-  </si>
-  <si>
-    <t>5:23:45 PM</t>
-  </si>
-  <si>
-    <t>Departmet:  ITE</t>
-  </si>
-  <si>
-    <t>Name:  neil</t>
-  </si>
-  <si>
-    <t>Employee No:  56743</t>
+    <t>Present</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Departmet:_ITE_ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name:________________ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employee No:________________ </t>
   </si>
 </sst>
 </file>
@@ -405,26 +444,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:12">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -440,21 +479,63 @@
       <c r="E4" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="F4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>401</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5">
         <v>0</v>
       </c>
-      <c r="E5">
+      <c r="L5">
         <v>0</v>
       </c>
     </row>
